--- a/ProjectTest65/Excel/AddIncome.xlsx
+++ b/ProjectTest65/Excel/AddIncome.xlsx
@@ -3,40 +3,43 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5364" yWindow="444" windowWidth="16908" windowHeight="11700" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddIncome" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <name val="Aptos Narrow"/>
-      <charset val="222"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
-      <charset val="222"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFEE0000"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color rgb="FFee0000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -49,12 +52,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEE0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFee0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,35 +64,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -167,10 +212,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -197,116 +242,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -318,188 +329,194 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.796875" customWidth="1" style="3" min="2" max="2"/>
-    <col width="23" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.69921875" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="14.69921875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="39" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="8.862142857142858" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="23.005" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
+    <col width="8.576428571428572" bestFit="1" customWidth="1" style="12" min="4" max="4"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="12" min="6" max="6"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
+    <col width="39.005" bestFit="1" customWidth="1" style="11" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Execute</t>
@@ -515,7 +532,7 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -530,12 +547,12 @@
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
@@ -551,351 +568,371 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>ผักกาด</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="J2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>ผักบุ้ง</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="J3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="J4" s="11" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>กรุณาเลือกชื่อสินค้า</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="12" t="n">
+        <v>225</v>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="J6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>สิบห้า</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
+      <c r="J7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>fifteen</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>-/-/^%</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
+      <c r="J9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>1 5</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n"/>
+      <c r="J10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>mju6204106317@mju.ac.th</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>กะหล่ำ</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>กรุณากรอกจำนวน</t>
         </is>
       </c>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="11" t="n"/>
+      <c r="J11" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectTest65/Excel/AddIncome.xlsx
+++ b/ProjectTest65/Excel/AddIncome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddIncome" sheetId="1" state="visible" r:id="rId1"/>
@@ -586,14 +586,10 @@
       <c r="G2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -679,16 +675,6 @@
       <c r="G5" s="6" t="inlineStr">
         <is>
           <t>กรุณาเลือกสินค้า</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>กรุณาเลือกสินค้า</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/ProjectTest65/Excel/AddIncome.xlsx
+++ b/ProjectTest65/Excel/AddIncome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA9394-C7C6-4097-83B3-485F5CED9C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF32CC-CADB-4985-8A8C-932ECA205639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="3180" windowWidth="16965" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddIncome" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +205,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -223,16 +229,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,31 +250,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,11 +267,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,381 +619,381 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="15">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="15">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="15">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1">
+      <c r="C5" s="16"/>
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="15">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="15">
         <v>225</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4">
         <f>COUNTIF(G:G,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="4" t="str">
         <f>TEXT(K8/10,"0.00%")</f>
         <v>100.00%</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="5">
         <f>COUNTIF(G:G,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="5" t="str">
         <f>TEXT(K9/10,"0.00%")</f>
         <v>0.00%</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="G10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="G11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="J14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4">
         <f>COUNTIF(G:G,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="4" t="str">
         <f>TEXT(K14/10,"0.00%")</f>
         <v>100.00%</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="5">
         <f>COUNTIF(G:G,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="5" t="str">
         <f>TEXT(K15/10,"0.00%")</f>
         <v>0.00%</v>
       </c>

--- a/ProjectTest65/Excel/AddIncome.xlsx
+++ b/ProjectTest65/Excel/AddIncome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF32CC-CADB-4985-8A8C-932ECA205639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC03D0-FC76-4694-949D-38D2B1D3C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="444" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddIncome" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Execute</t>
   </si>
@@ -59,55 +59,61 @@
     <t>Revise</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ผักกาด</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ผักบุ้ง</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>กะหล่ำ</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>สรุปผลการทดสอบ</t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกสินค้า</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>ผักกาด</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>ผักบุ้ง</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>กะหล่ำ</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกสินค้า</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
     <t>สิบห้า</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>สรุปผลการทดสอบ</t>
-  </si>
-  <si>
-    <t>คิดเป็น %</t>
+    <t>กรุณากรอกจำนวนเป็นตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>HTTP Status 500 – Internal Server Error</t>
   </si>
   <si>
     <t>fifteen</t>
   </si>
   <si>
     <t>-/-/^%</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>1 5</t>
@@ -301,11 +307,11 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,10 +623,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -629,12 +635,12 @@
     <col min="2" max="2" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -660,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -686,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -711,8 +717,13 @@
       <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1">
+      <c r="K3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -737,8 +748,15 @@
       <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="21.75" customHeight="1">
+      <c r="K4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -750,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>11</v>
@@ -761,8 +779,19 @@
       <c r="H5" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <f>COUNTIF(G:G,"Pass")</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f>TEXT(L5/10,"0.00%")</f>
+        <v>60.00%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -779,7 +808,7 @@
         <v>225</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
@@ -787,15 +816,21 @@
       <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1">
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5">
+        <f>COUNTIF(G:G,"Fail")</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f>TEXT(L6/10,"0.00%")</f>
+        <v>40.00%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" s="13">
         <v>6</v>
@@ -804,31 +839,27 @@
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="B8" s="13">
         <v>7</v>
@@ -837,35 +868,27 @@
         <v>14</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4">
-        <f>COUNTIF(G:G,"Pass")</f>
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>TEXT(K8/10,"0.00%")</f>
-        <v>100.00%</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13">
         <v>8</v>
@@ -874,35 +897,29 @@
         <v>14</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="5">
-        <f>COUNTIF(G:G,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f>TEXT(K9/10,"0.00%")</f>
-        <v>0.00%</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" s="13">
         <v>9</v>
@@ -911,25 +928,29 @@
         <v>14</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -941,10 +962,10 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>11</v>
@@ -952,58 +973,37 @@
       <c r="H11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="J12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="J13" s="22" t="s">
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
+        <f>COUNTIF(G:G,"Pass")</f>
+        <v>6</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>TEXT(L11/10,"0.00%")</f>
+        <v>60.00%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="K12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="4">
-        <f>COUNTIF(G:G,"Pass")</f>
-        <v>10</v>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>TEXT(K14/10,"0.00%")</f>
-        <v>100.00%</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="J15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="L12" s="5">
         <f>COUNTIF(G:G,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f>TEXT(K15/10,"0.00%")</f>
-        <v>0.00%</v>
+        <v>4</v>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f>TEXT(L12/10,"0.00%")</f>
+        <v>40.00%</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectTest65/Excel/AddIncome.xlsx
+++ b/ProjectTest65/Excel/AddIncome.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F722D8C-B6C3-4D82-9B5A-59AD9DDB3039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EF341-2ECE-4E66-A124-077AB6CD5B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Execute</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>ระบบไม่ได้ดักalertในส่วนถ้าไม่ได้กรอกจำนวนเป็นตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,6 +251,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -256,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -312,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -638,6 +653,7 @@
     <col min="5" max="5" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
@@ -853,6 +869,9 @@
       <c r="H7" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="I7" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -882,6 +901,7 @@
       <c r="H8" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="I8" s="23"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -911,6 +931,7 @@
       <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="I9" s="23"/>
       <c r="K9" s="22" t="s">
         <v>7</v>
       </c>
@@ -942,6 +963,7 @@
       <c r="H10" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="I10" s="23"/>
       <c r="K10" s="20" t="s">
         <v>16</v>
       </c>
@@ -999,11 +1021,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="I7:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
